--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.39583808922613</v>
+        <v>0.904627</v>
       </c>
       <c r="H2">
-        <v>2.39583808922613</v>
+        <v>2.713881</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7848491929517</v>
+        <v>37.42645866666667</v>
       </c>
       <c r="N2">
-        <v>21.7848491929517</v>
+        <v>112.279376</v>
       </c>
       <c r="O2">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="P2">
-        <v>0.1570945374978175</v>
+        <v>0.2415534622699011</v>
       </c>
       <c r="Q2">
-        <v>52.1929714645208</v>
+        <v>33.85698502425067</v>
       </c>
       <c r="R2">
-        <v>52.1929714645208</v>
+        <v>304.712865218256</v>
       </c>
       <c r="S2">
-        <v>0.1570945374978175</v>
+        <v>0.06450856748073137</v>
       </c>
       <c r="T2">
-        <v>0.1570945374978175</v>
+        <v>0.06450856748073137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.39583808922613</v>
+        <v>0.904627</v>
       </c>
       <c r="H3">
-        <v>2.39583808922613</v>
+        <v>2.713881</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.3739912757235</v>
+        <v>94.96115633333334</v>
       </c>
       <c r="N3">
-        <v>94.3739912757235</v>
+        <v>284.883469</v>
       </c>
       <c r="O3">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="P3">
-        <v>0.6805481359990114</v>
+        <v>0.6128871635375853</v>
       </c>
       <c r="Q3">
-        <v>226.1048029306728</v>
+        <v>85.90442597035432</v>
       </c>
       <c r="R3">
-        <v>226.1048029306728</v>
+        <v>773.1398337331889</v>
       </c>
       <c r="S3">
-        <v>0.6805481359990114</v>
+        <v>0.1636758694146229</v>
       </c>
       <c r="T3">
-        <v>0.6805481359990114</v>
+        <v>0.1636758694146229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.39583808922613</v>
+        <v>0.904627</v>
       </c>
       <c r="H4">
-        <v>2.39583808922613</v>
+        <v>2.713881</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2670571014571191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.5146585589683</v>
+        <v>22.553069</v>
       </c>
       <c r="N4">
-        <v>22.5146585589683</v>
+        <v>67.65920699999999</v>
       </c>
       <c r="O4">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="P4">
-        <v>0.1623573265031711</v>
+        <v>0.1455593741925136</v>
       </c>
       <c r="Q4">
-        <v>53.94147654149734</v>
+        <v>20.402115150263</v>
       </c>
       <c r="R4">
-        <v>53.94147654149734</v>
+        <v>183.619036352367</v>
       </c>
       <c r="S4">
-        <v>0.1623573265031711</v>
+        <v>0.03887266456176486</v>
       </c>
       <c r="T4">
-        <v>0.1623573265031711</v>
+        <v>0.03887266456176486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.482764666666667</v>
+      </c>
+      <c r="H5">
+        <v>7.448294000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.7329428985428809</v>
+      </c>
+      <c r="J5">
+        <v>0.7329428985428807</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>37.42645866666667</v>
+      </c>
+      <c r="N5">
+        <v>112.279376</v>
+      </c>
+      <c r="O5">
+        <v>0.2415534622699011</v>
+      </c>
+      <c r="P5">
+        <v>0.2415534622699011</v>
+      </c>
+      <c r="Q5">
+        <v>92.92108917606045</v>
+      </c>
+      <c r="R5">
+        <v>836.2898025845441</v>
+      </c>
+      <c r="S5">
+        <v>0.1770448947891697</v>
+      </c>
+      <c r="T5">
+        <v>0.1770448947891697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.482764666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.448294000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.7329428985428809</v>
+      </c>
+      <c r="J6">
+        <v>0.7329428985428807</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>94.96115633333334</v>
+      </c>
+      <c r="N6">
+        <v>284.883469</v>
+      </c>
+      <c r="O6">
+        <v>0.6128871635375853</v>
+      </c>
+      <c r="P6">
+        <v>0.6128871635375853</v>
+      </c>
+      <c r="Q6">
+        <v>235.7662036502096</v>
+      </c>
+      <c r="R6">
+        <v>2121.895832851886</v>
+      </c>
+      <c r="S6">
+        <v>0.4492112941229624</v>
+      </c>
+      <c r="T6">
+        <v>0.4492112941229623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.482764666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.448294000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.7329428985428809</v>
+      </c>
+      <c r="J7">
+        <v>0.7329428985428807</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.553069</v>
+      </c>
+      <c r="N7">
+        <v>67.65920699999999</v>
+      </c>
+      <c r="O7">
+        <v>0.1455593741925136</v>
+      </c>
+      <c r="P7">
+        <v>0.1455593741925136</v>
+      </c>
+      <c r="Q7">
+        <v>55.99396283809533</v>
+      </c>
+      <c r="R7">
+        <v>503.945665542858</v>
+      </c>
+      <c r="S7">
+        <v>0.1066867096307487</v>
+      </c>
+      <c r="T7">
+        <v>0.1066867096307487</v>
       </c>
     </row>
   </sheetData>
